--- a/辩论赛/论文.xlsx
+++ b/辩论赛/论文.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2217E4-AE91-478F-A343-97700320D331}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +19,136 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+  <si>
+    <t>题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学生就业能力对就业质量的影响</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李颖 ， 刘善仕 ， 翁赛珠 </t>
+  </si>
+  <si>
+    <t>《高教探索》 , 2005 (2) :91-93</t>
+  </si>
+  <si>
+    <t>被引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析结论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格有问题无法给出有用信息,如果对方没有准备该数据则可以当场随意解读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能有用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《高教探索》 , 2007 (6) :130-133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">肖云 ， 杜毅 ， 刘昕 </t>
+  </si>
+  <si>
+    <t>《南京理工大学学报(社会科学版)》 , 2004 , 17 (4) :85-90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陈岩松 </t>
+  </si>
+  <si>
+    <t>《中国青年政治学院学报》 , 2003 , 22 (2) :26-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吴庆 </t>
+  </si>
+  <si>
+    <t>大学生问卷,时间较久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学生就业能力与社会需求差异研究.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学生就业素质与就业能力培养研究</t>
+  </si>
+  <si>
+    <t>《中国青年研究》 , 2006 (12) :75-77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">钟一彪 </t>
+  </si>
+  <si>
+    <t>效果依赖解读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学生就业能力与社会需求差异研究——基于对重庆市1618名大学生和272家用人单位的调查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002年北京地区大学生就业状况调查报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002年北京地区大学生就业状况调查报告.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学生就业影响因素调查与分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学生就业影响因素调查与分析.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,14 +171,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +461,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>427</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>206</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>166</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2">
+        <v>157</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2">
+        <v>130</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://xueshu.baidu.com/s?wd=paperuri%3A%285c45e3cd2c6b276762ba6a58a508b87b%29&amp;filter=sc_long_sign&amp;tn=SE_xueshusource_2kduw22v&amp;sc_vurl=http%3A%2F%2Fwww.cqvip.com%2FQK%2F82643X%2F200502%2F15064695.html&amp;ie=utf-8&amp;sc_us=16778535072643664692" xr:uid="{0AC47E3F-FA30-43A4-92AE-96A3223423D8}"/>
+    <hyperlink ref="B2" r:id="rId2" tooltip="《高教探索》" display="http://xueshu.baidu.com/usercenter/data/journal?cmd=jump&amp;wd=journaluri%3A%28a1010d18ca72f5f4%29%20%E3%80%8A%E9%AB%98%E6%95%99%E6%8E%A2%E7%B4%A2%E3%80%8B&amp;tn=SE_baiduxueshu_c1gjeupa&amp;ie=utf-8&amp;sc_f_para=sc_hilight%3Dpublish&amp;sort=sc_cited" xr:uid="{8E4168C3-5001-4A97-B241-5F938E074316}"/>
+    <hyperlink ref="D2" r:id="rId3" display="http://xueshu.baidu.com/s?wd=refpaperuri:(5c45e3cd2c6b276762ba6a58a508b87b)&amp;sc_f_para=sc_cita%3D%7B%E5%A4%A7%E5%AD%A6%E7%94%9F%E5%B0%B1%E4%B8%9A%E8%83%BD%E5%8A%9B%E5%AF%B9%E5%B0%B1%E4%B8%9A%E8%B4%A8%E9%87%8F%E7%9A%84%E5%BD%B1%E5%93%8D%2C%20%20%20%20%20%20%20%20%20%20%20%20427%0D%0A%20%20%20%20%7D&amp;sort=sc_cited&amp;tn=SE_baiduxueshu_c1gjeupa&amp;ie=utf-8" xr:uid="{6DF0BBDA-9D79-4532-B0E4-0CBE9B7E47D7}"/>
+    <hyperlink ref="A3" r:id="rId4" display="http://d.wanfangdata.com.cn/Periodical/tjts200706036" xr:uid="{D34AEF04-ABED-4D03-87A3-CD6C7DF06F5A}"/>
+    <hyperlink ref="B3" r:id="rId5" tooltip="《高教探索》" display="http://xueshu.baidu.com/usercenter/data/journal?cmd=jump&amp;wd=journaluri%3A%28a1010d18ca72f5f4%29%20%E3%80%8A%E9%AB%98%E6%95%99%E6%8E%A2%E7%B4%A2%E3%80%8B&amp;tn=SE_baiduxueshu_c1gjeupa&amp;ie=utf-8&amp;sc_f_para=sc_hilight%3Dpublish&amp;sort=sc_cited" xr:uid="{AA2C7A46-5C3F-41E8-AFF5-F2AAA9BAA1C4}"/>
+    <hyperlink ref="D3" r:id="rId6" display="http://xueshu.baidu.com/s?wd=refpaperuri:(84cce6c8d74bcb2de9f80bfc5c29ccc3)&amp;sc_f_para=sc_cita%3D%7B%E5%A4%A7%E5%AD%A6%E7%94%9F%E5%B0%B1%E4%B8%9A%E8%83%BD%E5%8A%9B%E4%B8%8E%E7%A4%BE%E4%BC%9A%E9%9C%80%E6%B1%82%E5%B7%AE%E5%BC%82%E7%A0%94%E7%A9%B6%E2%80%94%E2%80%94%E5%9F%BA%E4%BA%8E%E5%AF%B9%E9%87%8D%E5%BA%86%E5%B8%821618%E5%90%8D%E5%A4%A7%E5%AD%A6%E7%94%9F%E5%92%8C272%E5%AE%B6%E7%94%A8%E4%BA%BA%E5%8D%95%E4%BD%8D%E7%9A%84%E8%B0%83%E6%9F%A5%2C%20%20%20%20%20%20%20%20%20%20%20%20206%0D%0A%20%20%20%20%7D&amp;sort=sc_cited&amp;tn=SE_baiduxueshu_c1gjeupa&amp;ie=utf-8" xr:uid="{4A4A9AC9-E6C4-4328-9EE5-4EA2A1EEFD7E}"/>
+    <hyperlink ref="A4" r:id="rId7" display="http://xueshu.baidu.com/s?wd=paperuri%3A%2835040fe311247a9bf0c9361efc84f098%29&amp;filter=sc_long_sign&amp;tn=SE_xueshusource_2kduw22v&amp;sc_vurl=http%3A%2F%2Fwww.cqvip.com%2FQK%2F71135X%2F201107%2F10417586.html&amp;ie=utf-8&amp;sc_us=7698937455979253254" xr:uid="{275F234F-7EC0-412F-99AD-3987BD78A0C2}"/>
+    <hyperlink ref="B4" r:id="rId8" tooltip="《南京理工大学学报(社会科学版)》" display="http://xueshu.baidu.com/usercenter/data/journal?cmd=jump&amp;wd=journaluri%3A%284df1a7f70cca34d7%29%20%E3%80%8A%E5%8D%97%E4%BA%AC%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%A6%E5%AD%A6%E6%8A%A5%28%E7%A4%BE%E4%BC%9A%E7%A7%91%E5%AD%A6%E7%89%88%29%E3%80%8B&amp;tn=SE_baiduxueshu_c1gjeupa&amp;ie=utf-8&amp;sc_f_para=sc_hilight%3Dpublish&amp;sort=sc_cited" xr:uid="{9DB9E9BD-5DD3-4FF1-8F03-67991DF93006}"/>
+    <hyperlink ref="C4" r:id="rId9" display="http://xueshu.baidu.com/usercenter/data/author?cmd=authoruri&amp;wd=authoruri%3A%281c5049985d024ba3%29%20author%3A%28%E9%99%88%E5%B2%A9%E6%9D%BE%29%20%E5%8D%97%E4%BA%AC%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%A6" xr:uid="{2CFA6B61-D69F-47EF-87AE-58FB64ACD331}"/>
+    <hyperlink ref="D4" r:id="rId10" display="http://xueshu.baidu.com/s?wd=refpaperuri:(35040fe311247a9bf0c9361efc84f098)&amp;sc_f_para=sc_cita%3D%7B%E5%A4%A7%E5%AD%A6%E7%94%9F%E5%B0%B1%E4%B8%9A%E5%BD%B1%E5%93%8D%E5%9B%A0%E7%B4%A0%E8%B0%83%E6%9F%A5%E4%B8%8E%E5%88%86%E6%9E%90%2C%20%20%20%20%20%20%20%20%20%20%20%20166%0D%0A%20%20%20%20%7D&amp;sort=sc_cited&amp;tn=SE_baiduxueshu_c1gjeupa&amp;ie=utf-8" xr:uid="{19AA9B98-EA53-4920-8928-0A3C330256CC}"/>
+    <hyperlink ref="A5" r:id="rId11" display="http://xueshu.baidu.com/s?wd=paperuri%3A%28fb0b3e37b304a7fb018d3ae40a926da8%29&amp;filter=sc_long_sign&amp;tn=SE_xueshusource_2kduw22v&amp;sc_vurl=http%3A%2F%2Fwww.cqvip.com%2FMain%2FDetail.aspx%3Fid%3D7541224&amp;ie=utf-8&amp;sc_us=11856348247520850585" xr:uid="{3D71ED7A-42CA-493C-BA5F-5AAA5E80DB28}"/>
+    <hyperlink ref="B5" r:id="rId12" tooltip="《中国青年政治学院学报》" display="http://xueshu.baidu.com/usercenter/data/journal?cmd=jump&amp;wd=journaluri%3A%28c29b1c22842df975%29%20%E3%80%8A%E4%B8%AD%E5%9B%BD%E9%9D%92%E5%B9%B4%E6%94%BF%E6%B2%BB%E5%AD%A6%E9%99%A2%E5%AD%A6%E6%8A%A5%E3%80%8B&amp;tn=SE_baiduxueshu_c1gjeupa&amp;ie=utf-8&amp;sc_f_para=sc_hilight%3Dpublish&amp;sort=sc_cited" xr:uid="{F92E7CB2-0670-4522-82EC-BB5217B120DE}"/>
+    <hyperlink ref="C5" r:id="rId13" display="http://xueshu.baidu.com/usercenter/data/author?cmd=authoruri&amp;wd=authoruri%3A%281b0317edc51b2d62%29%20author%3A%28%E5%90%B4%E5%BA%86%29%20%E4%B8%AD%E5%9B%BD%E9%9D%92%E5%B9%B4%E6%94%BF%E6%B2%BB%E5%AD%A6%E9%99%A2" xr:uid="{24A0C52A-F6B4-420E-8F14-FBE5E5249EED}"/>
+    <hyperlink ref="D5" r:id="rId14" display="http://xueshu.baidu.com/s?wd=refpaperuri:(fb0b3e37b304a7fb018d3ae40a926da8)&amp;sc_f_para=sc_cita%3D%7B2002%E5%B9%B4%E5%8C%97%E4%BA%AC%E5%9C%B0%E5%8C%BA%E5%A4%A7%E5%AD%A6%E7%94%9F%E5%B0%B1%E4%B8%9A%E7%8A%B6%E5%86%B5%E8%B0%83%E6%9F%A5%E6%8A%A5%E5%91%8A%2C%20%20%20%20%20%20%20%20%20%20%20%20157%0D%0A%20%20%20%20%7D&amp;sort=sc_cited&amp;tn=SE_baiduxueshu_c1gjeupa&amp;ie=utf-8" xr:uid="{30B07883-053A-401C-88B4-9950905BD2F6}"/>
+    <hyperlink ref="A6" r:id="rId15" display="http://d.wanfangdata.com.cn/Periodical/zgqnyj200612020" xr:uid="{59AF0C3A-C220-421A-9B02-EE302BA40C5B}"/>
+    <hyperlink ref="B6" r:id="rId16" tooltip="《中国青年研究》" display="http://xueshu.baidu.com/usercenter/data/journal?cmd=jump&amp;wd=journaluri%3A%2873467b7bcb57a057%29%20%E3%80%8A%E4%B8%AD%E5%9B%BD%E9%9D%92%E5%B9%B4%E7%A0%94%E7%A9%B6%E3%80%8B&amp;tn=SE_baiduxueshu_c1gjeupa&amp;ie=utf-8&amp;sc_f_para=sc_hilight%3Dpublish&amp;sort=sc_cited" xr:uid="{332A3198-5A5B-4060-BEC2-2A32F86FF808}"/>
+    <hyperlink ref="C6" r:id="rId17" display="http://xueshu.baidu.com/usercenter/data/author?cmd=authoruri&amp;wd=authoruri%3A%285a99db7f0dbb6bd7%29%20author%3A%28%E9%92%9F%E4%B8%80%E5%BD%AA%29%20%E4%B8%AD%E5%B1%B1%E5%A4%A7%E5%AD%A6" xr:uid="{9BD30F46-8E24-4B38-8B13-2D31AFE6E003}"/>
+    <hyperlink ref="D6" r:id="rId18" display="http://xueshu.baidu.com/s?wd=refpaperuri:(35df61da95a23361646d2e45497f2efb)&amp;sc_f_para=sc_cita%3D%7B%E5%A4%A7%E5%AD%A6%E7%94%9F%E5%B0%B1%E4%B8%9A%E7%B4%A0%E8%B4%A8%E4%B8%8E%E5%B0%B1%E4%B8%9A%E8%83%BD%E5%8A%9B%E5%9F%B9%E5%85%BB%E7%A0%94%E7%A9%B6%2C%20%20%20%20%20%20%20%20%20%20%20%20130%0D%0A%20%20%20%20%7D&amp;sort=sc_cited&amp;tn=SE_baiduxueshu_c1gjeupa&amp;ie=utf-8" xr:uid="{4511ED85-6B62-4D63-968C-AE4536D8D146}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>